--- a/evaluation/results/hybrid/autoencoder/LOF/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9252669039145908</v>
+        <v>0.297153024911032</v>
       </c>
       <c r="C2">
-        <v>0.1818181818181818</v>
+        <v>0.06619385342789598</v>
       </c>
       <c r="D2">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>0.1241685144124169</v>
       </c>
       <c r="F2">
-        <v>0.1492537313432836</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="G2">
-        <v>0.1440443213296399</v>
+        <v>0.6482635796972396</v>
       </c>
       <c r="H2">
-        <v>0.5545746388443018</v>
+        <v>0.7215088282504013</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="K2">
-        <v>516</v>
+        <v>139</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9662921348314607</v>
+        <v>0.2602996254681648</v>
       </c>
       <c r="D2">
-        <v>0.9608938547486033</v>
+        <v>0.413075780089153</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1818181818181818</v>
+        <v>0.06619385342789598</v>
       </c>
       <c r="C3">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.16</v>
+        <v>0.1241685144124169</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9252669039145908</v>
+        <v>0.297153024911032</v>
       </c>
       <c r="C4">
-        <v>0.9252669039145908</v>
+        <v>0.297153024911032</v>
       </c>
       <c r="D4">
-        <v>0.9252669039145908</v>
+        <v>0.297153024911032</v>
       </c>
       <c r="E4">
-        <v>0.9252669039145908</v>
+        <v>0.297153024911032</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5686868686868687</v>
+        <v>0.533096926713948</v>
       </c>
       <c r="C5">
-        <v>0.5545746388443018</v>
+        <v>0.6301498127340824</v>
       </c>
       <c r="D5">
-        <v>0.5604469273743017</v>
+        <v>0.2686221472507849</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.917006362557964</v>
+        <v>0.9534758503487208</v>
       </c>
       <c r="C6">
-        <v>0.9252669039145908</v>
+        <v>0.297153024911032</v>
       </c>
       <c r="D6">
-        <v>0.9209916698145093</v>
+        <v>0.3986818237920914</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>516</v>
+        <v>139</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
